--- a/testcases/sprint12/智能照明_tangyueyuan.xlsx
+++ b/testcases/sprint12/智能照明_tangyueyuan.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3AED4D38-BA08-4798-8472-4F0D40DF7D71}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="7815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24300" windowHeight="12990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
-    <sheet name="智能照明" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="智能照明" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="测试分析">OFFSET('[1]数据源 '!$A$1,0,0,COUNTA('[1]数据源 '!$A:$A),7)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>StarRiver 智能zhaom测试用例</t>
   </si>
@@ -143,7 +138,7 @@
     <t>正确显示当前域能耗数据图及设备状态图</t>
   </si>
   <si>
-    <t>数据固定</t>
+    <t>假数据</t>
   </si>
   <si>
     <t>计数项:测试编号</t>
@@ -179,7 +174,7 @@
     <t>能耗图显示选择日期当月每天能耗统计图</t>
   </si>
   <si>
-    <t>能耗值标识全局显示</t>
+    <t>能耗值黑底的标识在全局显示？</t>
   </si>
   <si>
     <t>smartlight-statistics-004</t>
@@ -219,9 +214,6 @@
   </si>
   <si>
     <t>显示满足条件的域和设备列表(并分页显示)，用不同图标表示，</t>
-  </si>
-  <si>
-    <t>api变更</t>
   </si>
   <si>
     <t>控制</t>
@@ -248,6 +240,13 @@
 3. 显示设备属性界面</t>
   </si>
   <si>
+    <t>#21713</t>
+  </si>
+  <si>
+    <t>对应状态为假数据
+设备属性界面是指？</t>
+  </si>
+  <si>
     <t>smartlight-map-006</t>
   </si>
   <si>
@@ -258,6 +257,13 @@
 2. 观察测试设备状态发生变化</t>
   </si>
   <si>
+    <t xml:space="preserve"> #21714 </t>
+  </si>
+  <si>
+    <t>设备所属组为假数据，
+调光未加入api，无法测试</t>
+  </si>
+  <si>
     <t>smartlight-list-001</t>
   </si>
   <si>
@@ -276,7 +282,7 @@
     <t>能正确显示设备地图坐标</t>
   </si>
   <si>
-    <t>无设备地图坐标</t>
+    <t>无设备地图坐标属性</t>
   </si>
   <si>
     <t>smartlight-list-003</t>
@@ -329,6 +335,10 @@
 2. 状态是互斥的，只能有一个当前可操作状态</t>
   </si>
   <si>
+    <t>1. 未正确显示选中的策略状态
+2. 只能有一个当前可操作状态没有体现</t>
+  </si>
+  <si>
     <t>smartlight-control-003</t>
   </si>
   <si>
@@ -338,7 +348,7 @@
     <t>正确显示当前策略执行任务列表信息</t>
   </si>
   <si>
-    <t>策略无包含设备，设置无效</t>
+    <t>策略无包含设备，设置无效？</t>
   </si>
   <si>
     <t>smartlight-control-004</t>
@@ -351,12 +361,19 @@
 2. 状态按钮更新状态</t>
   </si>
   <si>
+    <t>1. 是否下发成功消息未知
+2. 状态按钮未更新状态</t>
+  </si>
+  <si>
     <t>smartlight-control-005</t>
   </si>
   <si>
     <t>经纬度策略列表</t>
   </si>
   <si>
+    <t>组下无策略显示？</t>
+  </si>
+  <si>
     <t>smartlight-control-006</t>
   </si>
   <si>
@@ -369,34 +386,30 @@
     <t>经纬度策略任务记录</t>
   </si>
   <si>
-    <t>任务记录始终为成功，时间无定期，自动更新</t>
+    <t>任务记录始终为成功，记录时间非固定时间</t>
   </si>
   <si>
     <t>smartlight-control-008</t>
   </si>
   <si>
     <t>经纬度策略操作：启用或暂停</t>
-  </si>
-  <si>
-    <t>1. 流程不通，是否下发成功消息未知
-2. 状态按钮未更新状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 未正确显示选中的策略状态
-2. 只能有一个当前可操作状态没有体现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -404,7 +417,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -412,7 +424,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -420,55 +431,189 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +626,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -525,9 +850,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -551,6 +1118,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +1130,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,6 +1155,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -589,107 +1168,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
+      <font>
+        <strike val="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9"/>
+          <bgColor theme="0" tint="-0.149906918546098"/>
         </patternFill>
       </fill>
     </dxf>
@@ -701,12 +1319,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -714,22 +1329,19 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFD8787"/>
+      <color rgb="00FD8787"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -747,67 +1359,6 @@
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -823,7 +1374,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(空白)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -867,7 +1418,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -880,6 +1430,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -903,7 +1454,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>(空白)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>统计</c:v>
@@ -941,11 +1492,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53FF-46A3-957F-B39F1F08A174}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1001,7 +1547,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509071896"/>
@@ -1048,6 +1593,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="509071568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1062,6 +1626,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1092,7 +1657,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1137,7 +1701,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1766,7 +2329,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1780,20 +2343,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="13163550" y="4562475"/>
+        <a:ext cx="3937000" cy="3827145"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1807,7 +2364,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="数据源 "/>
@@ -1820,14 +2377,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ccc" refreshedDate="43192.548853935201" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" refreshedDate="43192.5488539352" refreshedBy="ccc" recordCount="0">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="智能照明"/>
   </cacheSource>
   <cacheFields count="6">
-    <cacheField name="测试编号" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
+    <cacheField name="测试编号" numFmtId="0"/>
     <cacheField name="功能" numFmtId="0">
       <sharedItems containsBlank="1" count="14">
         <s v="统计"/>
@@ -1846,551 +2401,27 @@
         <s v="文字属性" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="测试目标/步骤" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="期望" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
+    <cacheField name="测试目标/步骤" numFmtId="0"/>
+    <cacheField name="期望" numFmtId="0"/>
     <cacheField name="测试结果" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsBlank="1" containsNonDate="0" count="4">
         <m/>
         <s v="Success" u="1"/>
         <s v="Failed" u="1"/>
         <s v="Skip" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Bug#" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
+    <cacheField name="Bug#" numFmtId="0"/>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-    <m/>
-    <x v="4294967295"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" createdVersion="6" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:L9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -2464,66 +2495,49 @@
     <dataField name="计数项:测试编号" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="9">
+    <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="3">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2781,93 +2795,93 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1238095238095" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="10" max="10" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" ht="18.75" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="25">
         <v>43179</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="25">
         <v>43182</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -2876,103 +2890,103 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+    <row r="5" spans="1:10">
+      <c r="A5" s="16">
         <v>43187</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+    <row r="6" ht="27" spans="1:4">
+      <c r="A6" s="16">
         <v>43192</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="I8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2980,46 +2994,63 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.752380952381" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5047619047619" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.752380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.247619047619" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.247619047619" style="1" customWidth="1"/>
     <col min="8" max="9" width="4" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.8761904761905" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.37142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5047619047619" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.125" style="1"/>
-    <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.12380952380952" style="1"/>
+    <col min="16" max="16" width="10.8761904761905" style="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.37142857142857" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.3714285714286" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.8761904761905" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.24761904761905" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -3042,7 +3073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" ht="33" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3071,7 +3102,7 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" ht="33" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -3101,7 +3132,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" ht="33" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3121,15 +3152,15 @@
       <c r="G4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" ht="33" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -3147,19 +3178,19 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>4</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>4</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" ht="33" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -3177,19 +3208,19 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>6</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="12">
         <v>6</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" ht="49.5" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -3207,19 +3238,19 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="12">
         <v>6</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="12">
         <v>6</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" ht="33" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -3233,103 +3264,110 @@
         <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="J8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="12">
         <v>8</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="11">
-        <v>8</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="L8" s="12">
         <v>8</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" ht="33" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="12">
         <v>24</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="12">
         <v>24</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" ht="49.5" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="G10" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" ht="33" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
@@ -3337,81 +3375,81 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="33" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="33" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>4</v>
@@ -3419,196 +3457,196 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" ht="33" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" ht="33" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" ht="33" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" ht="33" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3617,7 +3655,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3626,7 +3664,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3635,7 +3673,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3644,7 +3682,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3653,7 +3691,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3662,7 +3700,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3671,7 +3709,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3680,7 +3718,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3689,7 +3727,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3698,7 +3736,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3707,7 +3745,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3716,7 +3754,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3725,189 +3763,182 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="3"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="3"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="3"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="3"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="3"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="3"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="3"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="3"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="3"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="3"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="3"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Skip"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1531">
+      <formula1>首页!$F$2:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>首页!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1531</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/testcases/sprint12/智能照明_tangyueyuan.xlsx
+++ b/testcases/sprint12/智能照明_tangyueyuan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="12990" activeTab="1"/>
+    <workbookView windowWidth="10860" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>StarRiver 智能zhaom测试用例</t>
   </si>
@@ -282,6 +282,9 @@
     <t>能正确显示设备地图坐标</t>
   </si>
   <si>
+    <t xml:space="preserve"> #21717</t>
+  </si>
+  <si>
     <t>无设备地图坐标属性</t>
   </si>
   <si>
@@ -313,6 +316,9 @@
     <t>网关：地图坐标</t>
   </si>
   <si>
+    <t xml:space="preserve"> #21718</t>
+  </si>
+  <si>
     <t>smartlight-control-001</t>
   </si>
   <si>
@@ -322,7 +328,10 @@
     <t>正确显示配置好的时间策略列表及分组信息</t>
   </si>
   <si>
-    <t>组下无策略显示</t>
+    <t xml:space="preserve"> #21724</t>
+  </si>
+  <si>
+    <t>组下无策略显示，仍以空组显示？</t>
   </si>
   <si>
     <t>smartlight-control-002</t>
@@ -335,6 +344,9 @@
 2. 状态是互斥的，只能有一个当前可操作状态</t>
   </si>
   <si>
+    <t xml:space="preserve"> #21720 </t>
+  </si>
+  <si>
     <t>1. 未正确显示选中的策略状态
 2. 只能有一个当前可操作状态没有体现</t>
   </si>
@@ -361,6 +373,9 @@
 2. 状态按钮更新状态</t>
   </si>
   <si>
+    <t xml:space="preserve"> #21721</t>
+  </si>
+  <si>
     <t>1. 是否下发成功消息未知
 2. 状态按钮未更新状态</t>
   </si>
@@ -371,7 +386,7 @@
     <t>经纬度策略列表</t>
   </si>
   <si>
-    <t>组下无策略显示？</t>
+    <t xml:space="preserve"> #21725</t>
   </si>
   <si>
     <t>smartlight-control-006</t>
@@ -380,6 +395,9 @@
     <t>经纬度策略状态</t>
   </si>
   <si>
+    <t xml:space="preserve"> #21722</t>
+  </si>
+  <si>
     <t>smartlight-control-007</t>
   </si>
   <si>
@@ -393,6 +411,9 @@
   </si>
   <si>
     <t>经纬度策略操作：启用或暂停</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #21723</t>
   </si>
 </sst>
 </file>
@@ -400,10 +421,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -469,22 +490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -493,7 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,7 +513,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -524,24 +529,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,10 +575,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,21 +612,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -608,6 +622,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,31 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +667,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +721,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,49 +793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,55 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,8 +875,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,7 +900,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,16 +921,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,6 +952,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -924,34 +969,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,130 +990,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2424,7 +2445,11 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" createdVersion="6" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:L9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="15">
         <item sd="0" m="1" x="13"/>
@@ -3021,7 +3046,7 @@
   <sheetPr/>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3372,7 +3397,7 @@
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
@@ -3391,20 +3416,22 @@
       <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="33" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>74</v>
@@ -3412,20 +3439,20 @@
       <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" ht="33" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>74</v>
@@ -3433,20 +3460,20 @@
       <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>79</v>
@@ -3454,18 +3481,18 @@
       <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>82</v>
@@ -3473,177 +3500,191 @@
       <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="33" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" ht="33" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7">
